--- a/Design and Document/Solve problem fingerprint.xlsx
+++ b/Design and Document/Solve problem fingerprint.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -48,7 +48,13 @@
     <t>keypad có thể chưa đáp ứng môi trường sử dụng</t>
   </si>
   <si>
-    <t xml:space="preserve">OTA hiện tại đang overwrite flash, </t>
+    <t>OTA hiện tại đang overwrite flash, chưa upload riêng cho từng file</t>
+  </si>
+  <si>
+    <t>khoảng thời gian delay cho việc đóng relay khi quét vân tay</t>
+  </si>
+  <si>
+    <t>logic khi user giữ finger lâu trên sensor R503</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +86,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,15 +401,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,40 +422,140 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
